--- a/mock_data/User.xlsx
+++ b/mock_data/User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadKoni\Desktop\database\mock_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE56C24-8270-4461-B8F5-ED6DE45CADD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A3CB6-9C12-421C-92F9-8C938B17E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="264">
   <si>
     <t>user_id</t>
   </si>
@@ -822,6 +822,9 @@
   </si>
   <si>
     <t>wsedgebeer1d@google.pl</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J50"/>
+      <selection activeCell="K1" sqref="K1:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,9 +1198,10 @@
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,12 +1229,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="str">
-        <f>"INSERT INTO User VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', '"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO User VALUES ('1','mhurkett0','39q0xHZAos','Merell','Hurkett','mhurkett0@hp.com','library_operator', '5','1');</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" t="str">
+        <f>"INSERT INTO User VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"', '"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
+        <v>INSERT INTO User VALUES ('mhurkett0','39q0xHZAos','Merell','Hurkett','mhurkett0@hp.com','library_operator','5', '1','15');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1258,12 +1265,15 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J50" si="0">"INSERT INTO User VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', '"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO User VALUES ('2','jsemered1','VVWsu5nCoR','Jaquenetta','Semered','jsemered1@state.tx.us','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K50" si="0">"INSERT INTO User VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"', '"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
+        <v>INSERT INTO User VALUES ('jsemered1','VVWsu5nCoR','Jaquenetta','Semered','jsemered1@state.tx.us','student','4', '1','16');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1291,12 +1301,15 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('3','rdoig2','3Jc3Vn','Raychel','Doig','rdoig2@bbb.org','professor', '5','1');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('rdoig2','3Jc3Vn','Raychel','Doig','rdoig2@bbb.org','professor','5', '1','16');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1324,12 +1337,15 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('4','zforrestall3','bEFDabzgz4z','Zahara','Forrestall','zforrestall3@umich.edu','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('zforrestall3','bEFDabzgz4z','Zahara','Forrestall','zforrestall3@umich.edu','student','1', '1','13');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1357,12 +1373,15 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('5','ojeskin4','NO8Eplqsy','Opaline','Jeskin','ojeskin4@wikispaces.com','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('ojeskin4','NO8Eplqsy','Opaline','Jeskin','ojeskin4@wikispaces.com','student','4', '1','14');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1390,12 +1409,15 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('6','boolahan5','8F2tmgoWIVBU','Bone','Oolahan','boolahan5@usnews.com','administrator', '1','1');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('boolahan5','8F2tmgoWIVBU','Bone','Oolahan','boolahan5@usnews.com','administrator','1', '1','16');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1423,12 +1445,15 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('7','wambler6','rG7BDuKzUBNJ','Waneta','Ambler','wambler6@addtoany.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('wambler6','rG7BDuKzUBNJ','Waneta','Ambler','wambler6@addtoany.com','student','1', '1','13');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1456,12 +1481,15 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('8','dbynold7','LMsaZ87A3rMz','Dareen','Bynold','dbynold7@geocities.com','student', '2','1');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('dbynold7','LMsaZ87A3rMz','Dareen','Bynold','dbynold7@geocities.com','student','2', '1','13');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1489,12 +1517,15 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('9','sansell8','NPnx9FluLmP','Scarface','Ansell','sansell8@nifty.com','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('sansell8','NPnx9FluLmP','Scarface','Ansell','sansell8@nifty.com','student','4', '1','17');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1522,12 +1553,15 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('10','mtumelty9','8dcimd','Myra','Tumelty','mtumelty9@reverbnation.com','professor', '2','1');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('mtumelty9','8dcimd','Myra','Tumelty','mtumelty9@reverbnation.com','professor','2', '1','17');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1555,12 +1589,15 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('11','aredwalla','Y4JY5ZBX','Adelaida','Redwall','aredwalla@desdev.cn','library_operator', '4','1');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>17</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('aredwalla','Y4JY5ZBX','Adelaida','Redwall','aredwalla@desdev.cn','library_operator','4', '1','17');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1588,12 +1625,15 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('12','bcarnegieb','3tDOUhU','Barrett','Carnegie','bcarnegieb@nydailynews.com','library_operator', '4','1');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('bcarnegieb','3tDOUhU','Barrett','Carnegie','bcarnegieb@nydailynews.com','library_operator','4', '1','13');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1621,12 +1661,15 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('13','croddc','pBmX7kjjKwuj','Curry','Rodd','croddc@cargocollective.com','professor', '1','1');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('croddc','pBmX7kjjKwuj','Curry','Rodd','croddc@cargocollective.com','professor','1', '1','14');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1654,12 +1697,15 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('14','klountd','X4AOma','Kaylyn','Lount','klountd@friendfeed.com','professor', '4','1');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('klountd','X4AOma','Kaylyn','Lount','klountd@friendfeed.com','professor','4', '1','12');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1687,12 +1733,15 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('15','mkaygille','dxrObifZv5','Marybeth','Kaygill','mkaygille@angelfire.com','professor', '1','1');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('mkaygille','dxrObifZv5','Marybeth','Kaygill','mkaygille@angelfire.com','professor','1', '1','12');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1720,12 +1769,15 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('16','ghulettf','Y03dSXbudqVJ','Granny','Hulett','ghulettf@census.gov','professor', '1','1');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('ghulettf','Y03dSXbudqVJ','Granny','Hulett','ghulettf@census.gov','professor','1', '1','16');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1753,12 +1805,15 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('17','dtrimbyg','LrMrUaa4Jb5c','Dolf','Trimby','dtrimbyg@nhs.uk','professor', '5','1');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('dtrimbyg','LrMrUaa4Jb5c','Dolf','Trimby','dtrimbyg@nhs.uk','professor','5', '1','15');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1786,12 +1841,15 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('18','mminnetteh','IxvlUWKB4h','Morgan','Minnette','mminnetteh@apple.com','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('mminnetteh','IxvlUWKB4h','Morgan','Minnette','mminnetteh@apple.com','student','4', '1','12');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1819,12 +1877,15 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('19','wwomacki','iaLNg7YZAUew','Wakefield','Womack','wwomacki@apache.org','library_operator', '3','1');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('wwomacki','iaLNg7YZAUew','Wakefield','Womack','wwomacki@apache.org','library_operator','3', '1','16');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1852,12 +1913,15 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('20','crebbeckj','KL7RNw9Lsd','Colas','Rebbeck','crebbeckj@ebay.co.uk','library_operator', '2','1');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('crebbeckj','KL7RNw9Lsd','Colas','Rebbeck','crebbeckj@ebay.co.uk','library_operator','2', '1','16');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1885,12 +1949,15 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('21','rkielyk','3x1dqU','Reuven','Kiely','rkielyk@reference.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('rkielyk','3x1dqU','Reuven','Kiely','rkielyk@reference.com','student','1', '1','17');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1918,12 +1985,15 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('22','cshemeltl','3q9jjD4MzmKJ','Cass','Shemelt','cshemeltl@blog.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>17</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('cshemeltl','3q9jjD4MzmKJ','Cass','Shemelt','cshemeltl@blog.com','student','1', '1','13');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1951,12 +2021,15 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('23','cfaulderm','UWeakD','Chauncey','Faulder','cfaulderm@accuweather.com','professor', '3','1');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('cfaulderm','UWeakD','Chauncey','Faulder','cfaulderm@accuweather.com','professor','3', '1','16');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1984,12 +2057,15 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('24','lilyinykhn','MbhM8kwu','Latrina','Ilyinykh','lilyinykhn@wordpress.org','student', '5','1');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('lilyinykhn','MbhM8kwu','Latrina','Ilyinykh','lilyinykhn@wordpress.org','student','5', '1','15');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2017,12 +2093,15 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('25','btreskeo','nmUWz8BZ6Ok5','Berton','Treske','btreskeo@sphinn.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('btreskeo','nmUWz8BZ6Ok5','Berton','Treske','btreskeo@sphinn.com','student','1', '1','13');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2050,12 +2129,15 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('26','cdemep','kIfKpDotR','Cyndie','Deme','cdemep@cpanel.net','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>13</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('cdemep','kIfKpDotR','Cyndie','Deme','cdemep@cpanel.net','student','1', '1','13');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2083,12 +2165,15 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('27','mriddickq','9aKvETb3a3','Marcelo','Riddick','mriddickq@princeton.edu','professor', '2','1');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>13</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('mriddickq','9aKvETb3a3','Marcelo','Riddick','mriddickq@princeton.edu','professor','2', '1','15');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2116,12 +2201,15 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('28','hewdaler','fF7JM9YFASk','Hedy','Ewdale','hewdaler@vistaprint.com','student', '3','1');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('hewdaler','fF7JM9YFASk','Hedy','Ewdale','hewdaler@vistaprint.com','student','3', '1','14');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2149,12 +2237,15 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('29','bdecourcys','DOPRaCOVhg','Benyamin','Decourcy','bdecourcys@sitemeter.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('bdecourcys','DOPRaCOVhg','Benyamin','Decourcy','bdecourcys@sitemeter.com','student','1', '1','14');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2182,12 +2273,15 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('30','gfinicjt','twS33H','Goran','Finicj','gfinicjt@myspace.com','student', '3','1');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('gfinicjt','twS33H','Goran','Finicj','gfinicjt@myspace.com','student','3', '1','14');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2215,12 +2309,15 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('31','zscimoniu','igf13KQXz5t','Zackariah','Scimoni','zscimoniu@discovery.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('zscimoniu','igf13KQXz5t','Zackariah','Scimoni','zscimoniu@discovery.com','student','1', '1','17');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2248,12 +2345,15 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('32','jpirouetv','Ah2BVebXO','Jaquelin','Pirouet','jpirouetv@linkedin.com','student', '3','1');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>17</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('jpirouetv','Ah2BVebXO','Jaquelin','Pirouet','jpirouetv@linkedin.com','student','3', '1','14');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2281,12 +2381,15 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('33','bballeinew','LOpxU2','Bertina','Balleine','bballeinew@cdbaby.com','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('bballeinew','LOpxU2','Bertina','Balleine','bballeinew@cdbaby.com','student','4', '1','15');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2314,12 +2417,15 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('34','dbadseyx','9q6U6j3','Danette','Badsey','dbadseyx@goodreads.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>15</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('dbadseyx','9q6U6j3','Danette','Badsey','dbadseyx@goodreads.com','student','1', '1','18');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2347,12 +2453,15 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('35','dtittay','7fnoAt','Dodie','Titta','dtittay@eepurl.com','professor', '1','1');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('dtittay','7fnoAt','Dodie','Titta','dtittay@eepurl.com','professor','1', '1','15');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2380,12 +2489,15 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('36','hravenz','TONLrQt','Hill','Raven','hravenz@usa.gov','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('hravenz','TONLrQt','Hill','Raven','hravenz@usa.gov','student','1', '1','13');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2413,12 +2525,15 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('37','ckonert10','ty5urQ','Calypso','Konert','ckonert10@europa.eu','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('ckonert10','ty5urQ','Calypso','Konert','ckonert10@europa.eu','student','4', '1','13');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2446,12 +2561,15 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('38','okasper11','AtKRn6N','Olivette','Kasper','okasper11@bluehost.com','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('okasper11','AtKRn6N','Olivette','Kasper','okasper11@bluehost.com','student','4', '1','16');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2479,12 +2597,15 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('39','mocahill12','hBzoQvD7','Marv','O'Cahill','mocahill12@bluehost.com','student', '3','1');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('mocahill12','hBzoQvD7','Marv','O'Cahill','mocahill12@bluehost.com','student','3', '1','17');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2512,12 +2633,15 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('40','sitzkin13','gDSt9GNBFyHa','Seamus','Itzkin','sitzkin13@ow.ly','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>17</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('sitzkin13','gDSt9GNBFyHa','Seamus','Itzkin','sitzkin13@ow.ly','student','1', '1','15');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2545,12 +2669,15 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('41','jfarish14','cTfOlCZ','Jacob','Farish','jfarish14@admin.ch','student', '3','1');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>15</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('jfarish14','cTfOlCZ','Jacob','Farish','jfarish14@admin.ch','student','3', '1','13');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2578,12 +2705,15 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('42','fmathiasen15','cjKxPA','Ferdinand','Mathiasen','fmathiasen15@dailymail.co.uk','professor', '2','1');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('fmathiasen15','cjKxPA','Ferdinand','Mathiasen','fmathiasen15@dailymail.co.uk','professor','2', '1','15');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2611,12 +2741,15 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('43','sessam16','BOmEy6hcRuZ','Saul','Essam','sessam16@diigo.com','student', '3','1');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('sessam16','BOmEy6hcRuZ','Saul','Essam','sessam16@diigo.com','student','3', '1','12');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2644,12 +2777,15 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('44','ngavrielli17','8j74JKF','Nada','Gavrielli','ngavrielli17@adobe.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('ngavrielli17','8j74JKF','Nada','Gavrielli','ngavrielli17@adobe.com','student','1', '1','12');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2677,12 +2813,15 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('45','capthorpe18','mY03PswnjrrH','Calley','Apthorpe','capthorpe18@hao123.com','student', '2','1');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('capthorpe18','mY03PswnjrrH','Calley','Apthorpe','capthorpe18@hao123.com','student','2', '1','14');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2710,12 +2849,15 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('46','achasle19','xpR5Kb9e','Andromache','Chasle','achasle19@apple.com','student', '5','1');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('achasle19','xpR5Kb9e','Andromache','Chasle','achasle19@apple.com','student','5', '1','13');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2743,12 +2885,15 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('47','gdando1a','ta06pPuPoR','Grannie','Dando','gdando1a@fotki.com','student', '4','1');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('gdando1a','ta06pPuPoR','Grannie','Dando','gdando1a@fotki.com','student','4', '1','13');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2776,12 +2921,15 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('48','valdam1b','nCnu87sT','Vincenz','Aldam','valdam1b@unc.edu','professor', '5','1');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>13</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('valdam1b','nCnu87sT','Vincenz','Aldam','valdam1b@unc.edu','professor','5', '1','14');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2809,12 +2957,15 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('49','dprimarolo1c','pjZ8Zw','Daveta','Primarolo','dprimarolo1c@accuweather.com','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('dprimarolo1c','pjZ8Zw','Daveta','Primarolo','dprimarolo1c@accuweather.com','student','1', '1','12');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2842,12 +2993,15 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO User VALUES ('50','wsedgebeer1d','Bn5ExsL','Winnifred','Sedgebeer','wsedgebeer1d@google.pl','student', '1','1');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO User VALUES ('wsedgebeer1d','Bn5ExsL','Winnifred','Sedgebeer','wsedgebeer1d@google.pl','student','1', '1','15');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2874,6 +3028,13 @@
       </c>
       <c r="I51">
         <v>1</v>
+      </c>
+      <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" ref="K51" si="1">"INSERT INTO User VALUES ('"&amp;B52&amp;"','"&amp;C52&amp;"','"&amp;D52&amp;"','"&amp;E52&amp;"','"&amp;F52&amp;"','"&amp;G52&amp;"','"&amp;H52&amp;"', '"&amp;I52&amp;"','"&amp;J52&amp;"');"</f>
+        <v>INSERT INTO User VALUES ('','','','','','','', '','');</v>
       </c>
     </row>
   </sheetData>
